--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>823482.0550613542</v>
+        <v>830932.6299909714</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6465050.950138945</v>
+        <v>5312247.587582162</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4913218.392264779</v>
+        <v>3783355.816622883</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7871572.317455123</v>
+        <v>8328556.072514167</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>41.77736672774366</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.530111524748481</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>42.43741174507654</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
@@ -880,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>392.4208820523424</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>236.1029970916039</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1065,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>103.2794232765806</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -1145,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>107.5465233404936</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>77.18876577706861</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -1354,7 +1356,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>107.5465233404932</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>92.70351566842783</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1591,7 +1593,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>208.3015676215477</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1731849896783</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1828,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059087</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>107.5465233404932</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1892,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>11.0966984807936</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>194.3204012433884</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2242,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>111.8159759359175</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>352.0529932496993</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2336,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>117.4784251967216</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.42112583714598</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2539,7 +2541,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
@@ -2564,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2618,7 +2620,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>360.1761827375286</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>7.978225007842747</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>29.06736062834964</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>269.9562877695847</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.733818067948024</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3013,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3238,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3275,13 +3277,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>282.1353944293379</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>228.2601210751805</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3503,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.46748333863208</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>8.605238305347671</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>274.2883585578521</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>170.7879507721958</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>102.5883269659569</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3907,16 +3909,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097029</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>288.5020124848064</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>330.4346168675958</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884548</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1611.412054631464</v>
+        <v>492.6927300678241</v>
       </c>
       <c r="C2" t="n">
-        <v>1201.287463944734</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="D2" t="n">
-        <v>1201.287463944734</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="E2" t="n">
-        <v>1201.287463944734</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F2" t="n">
-        <v>780.2570518984217</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>371.5287677912538</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>773.2116702312098</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>1523.387516665985</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>2273.563363100761</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O2" t="n">
-        <v>2917.194219517866</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>2917.194219517866</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>3029.467953751872</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2772.407462011382</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2422.569907347863</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2422.569907347863</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X2" t="n">
-        <v>2422.569907347863</v>
+        <v>1303.850582784223</v>
       </c>
       <c r="Y2" t="n">
-        <v>2021.633234295953</v>
+        <v>902.9139097323135</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>152.1160747630155</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>516.4265266842705</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>1177.514698603559</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M3" t="n">
-        <v>1177.514698603559</v>
+        <v>1531.257211227552</v>
       </c>
       <c r="N3" t="n">
-        <v>1177.514698603559</v>
+        <v>1531.257211227552</v>
       </c>
       <c r="O3" t="n">
-        <v>1727.705482222858</v>
+        <v>2048.100145893877</v>
       </c>
       <c r="P3" t="n">
-        <v>1727.705482222858</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2077.549946906842</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1590.019167039822</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1590.019167039822</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1547.153094570048</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1264.354947116172</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>990.4692020556938</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>711.3995375645682</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>473.0556754242515</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y4" t="n">
-        <v>248.3199768130162</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1300.503557259182</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C5" t="n">
-        <v>890.3789665724521</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3789665724521</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E5" t="n">
-        <v>890.3789665724521</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>469.3485545261396</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>314.8057418867261</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>852.9652429957656</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1565.556642808004</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>2315.732489242779</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>3031.013520948588</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>3031.013520948588</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P5" t="n">
-        <v>3031.013520948588</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>3031.013520948588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2895.732445742689</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2673.525961689548</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2435.038085839443</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2085.200531175924</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1701.440230311092</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1701.440230311092</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1300.503557259182</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>739.4511123055061</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>605.4560410544518</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>488.5588832738442</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>368.0660672661722</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>259.1061874486768</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>152.1160747630155</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>81.36886179873159</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>60.62027041897176</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>60.62027041897176</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M6" t="n">
-        <v>652.976529288802</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>1403.152375723578</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O6" t="n">
-        <v>2107.109466269472</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P6" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2107.109466269472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1999.119456383781</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1839.777592570789</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1642.426781709008</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1428.715254702041</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1215.48208643837</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.156104577263</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>879.7541449410927</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>552.1191026660258</v>
+        <v>637.5865676509799</v>
       </c>
       <c r="C7" t="n">
-        <v>381.0257302277423</v>
+        <v>466.4931952126964</v>
       </c>
       <c r="D7" t="n">
-        <v>221.5310855506523</v>
+        <v>306.9985505356064</v>
       </c>
       <c r="E7" t="n">
-        <v>60.62027041897176</v>
+        <v>146.0877354039259</v>
       </c>
       <c r="F7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>60.62027041897176</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>74.70281982418228</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>229.2551475464203</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>489.1522478264808</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>778.4163042669741</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1059.255086661224</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1318.815696987699</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1524.491137237311</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1590.019167039822</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1590.019167039822</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V7" t="n">
-        <v>1481.968034302748</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W7" t="n">
-        <v>1202.898369811622</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="X7" t="n">
-        <v>964.5545076713055</v>
+        <v>1050.02197265626</v>
       </c>
       <c r="Y7" t="n">
-        <v>739.8188090600702</v>
+        <v>825.2862740450242</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1710.579418542057</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C8" t="n">
-        <v>1300.454827855327</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D8" t="n">
-        <v>895.9908979483876</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6506824652842</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F8" t="n">
-        <v>60.62027041897176</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G8" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H8" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I8" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>60.62027041897176</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K8" t="n">
-        <v>60.62027041897176</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L8" t="n">
-        <v>773.2116702312098</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M8" t="n">
-        <v>1523.387516665985</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N8" t="n">
-        <v>2273.563363100761</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O8" t="n">
-        <v>2709.852514153296</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P8" t="n">
-        <v>2709.852514153296</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R8" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>2922.380669089503</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>2922.380669089503</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V8" t="n">
-        <v>2922.380669089503</v>
+        <v>4143.079963151549</v>
       </c>
       <c r="W8" t="n">
-        <v>2922.380669089503</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X8" t="n">
-        <v>2521.737271258456</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.800598206546</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K9" t="n">
-        <v>60.62027041897176</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L9" t="n">
-        <v>606.7577733999209</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="M9" t="n">
-        <v>1356.933619834696</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="N9" t="n">
-        <v>2107.109466269472</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="O9" t="n">
-        <v>2107.109466269472</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P9" t="n">
-        <v>2107.109466269472</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q9" t="n">
-        <v>2107.109466269472</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R9" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1504.746448715222</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S10" t="n">
-        <v>1318.354680595132</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T10" t="n">
-        <v>1078.805941571834</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U10" t="n">
-        <v>796.0077941179582</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V10" t="n">
-        <v>522.1220490574801</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W10" t="n">
-        <v>243.0523845663545</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1819.212270401141</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C11" t="n">
-        <v>1409.087679714411</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D11" t="n">
-        <v>1004.623749807472</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E11" t="n">
-        <v>590.2835343243682</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F11" t="n">
-        <v>169.2531222780558</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G11" t="n">
-        <v>60.62027041897176</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I11" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>60.62027041897176</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K11" t="n">
-        <v>598.7797715280112</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L11" t="n">
-        <v>887.0309716619321</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M11" t="n">
-        <v>1637.206818096708</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N11" t="n">
-        <v>2387.382664531483</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O11" t="n">
-        <v>3031.013520948588</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P11" t="n">
-        <v>3031.013520948588</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q11" t="n">
-        <v>3031.013520948588</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R11" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>3031.013520948588</v>
+        <v>4484.896057873863</v>
       </c>
       <c r="T11" t="n">
-        <v>3031.013520948588</v>
+        <v>4262.689573820722</v>
       </c>
       <c r="U11" t="n">
-        <v>3031.013520948588</v>
+        <v>4005.629082080232</v>
       </c>
       <c r="V11" t="n">
-        <v>3031.013520948588</v>
+        <v>3655.791527416713</v>
       </c>
       <c r="W11" t="n">
-        <v>3031.013520948588</v>
+        <v>3272.031226551881</v>
       </c>
       <c r="X11" t="n">
-        <v>2630.370123117541</v>
+        <v>2871.387828720834</v>
       </c>
       <c r="Y11" t="n">
-        <v>2229.43345006563</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1663.355166984622</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>1529.360095733568</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>1412.462937952961</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>1291.970121945289</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>1183.010242127793</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>1076.020129442132</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>1005.272916477848</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>984.5243250980881</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>984.5243250980881</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K12" t="n">
-        <v>984.5243250980881</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L12" t="n">
-        <v>984.5243250980881</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="M12" t="n">
-        <v>1734.700171532864</v>
+        <v>1390.354056413674</v>
       </c>
       <c r="N12" t="n">
-        <v>2484.876017967639</v>
+        <v>1390.354056413674</v>
       </c>
       <c r="O12" t="n">
-        <v>3031.013520948588</v>
+        <v>1390.354056413674</v>
       </c>
       <c r="P12" t="n">
-        <v>3031.013520948588</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q12" t="n">
-        <v>3031.013520948588</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R12" t="n">
-        <v>3031.013520948588</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>2923.023511062897</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>2763.681647249905</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>2566.330836388124</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>2352.619309381158</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>2139.386141117486</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1963.060159256379</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>1803.658199620209</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1504.746448715222</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S13" t="n">
-        <v>1318.354680595132</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T13" t="n">
-        <v>1078.805941571834</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U13" t="n">
-        <v>796.0077941179582</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V13" t="n">
-        <v>522.1220490574801</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W13" t="n">
-        <v>243.0523845663545</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y13" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>875.2087910126411</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C14" t="n">
-        <v>465.0842003259112</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D14" t="n">
-        <v>60.62027041897176</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E14" t="n">
-        <v>60.62027041897176</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F14" t="n">
-        <v>60.62027041897176</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G14" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H14" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I14" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>60.62027041897176</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K14" t="n">
-        <v>174.4395718496941</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L14" t="n">
-        <v>887.0309716619321</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M14" t="n">
-        <v>1637.206818096708</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N14" t="n">
-        <v>2387.382664531483</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O14" t="n">
-        <v>3031.013520948588</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P14" t="n">
-        <v>3031.013520948588</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q14" t="n">
-        <v>3031.013520948588</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R14" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="U14" t="n">
-        <v>2820.607897088439</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="V14" t="n">
-        <v>2470.770342424919</v>
+        <v>4143.079963151549</v>
       </c>
       <c r="W14" t="n">
-        <v>2087.010041560088</v>
+        <v>3759.319662286718</v>
       </c>
       <c r="X14" t="n">
-        <v>1686.36664372904</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y14" t="n">
-        <v>1285.429970677131</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>78.66468091237135</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>534.4709371776701</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L15" t="n">
-        <v>1195.559109096958</v>
+        <v>872.3969322698847</v>
       </c>
       <c r="M15" t="n">
-        <v>1195.559109096958</v>
+        <v>872.3969322698847</v>
       </c>
       <c r="N15" t="n">
-        <v>1195.559109096958</v>
+        <v>872.3969322698847</v>
       </c>
       <c r="O15" t="n">
-        <v>1195.559109096958</v>
+        <v>1576.354022815779</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.265001585488</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R15" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1590.019167039822</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S16" t="n">
-        <v>1590.019167039822</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T16" t="n">
-        <v>1359.453388176003</v>
+        <v>1109.756390606671</v>
       </c>
       <c r="U16" t="n">
-        <v>1076.655240722127</v>
+        <v>826.9582431527954</v>
       </c>
       <c r="V16" t="n">
-        <v>802.7694956616493</v>
+        <v>553.0724980923173</v>
       </c>
       <c r="W16" t="n">
-        <v>523.6998311705237</v>
+        <v>274.0028336011917</v>
       </c>
       <c r="X16" t="n">
-        <v>285.3559690302071</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1819.212270401141</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1409.087679714411</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1004.623749807472</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>590.2835343243682</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>169.2531222780558</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G17" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H17" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>60.62027041897176</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>60.62027041897176</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
-        <v>357.8742737427805</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1108.050120177556</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1858.225966612331</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>2501.856823029436</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>3031.013520948588</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>3031.013520948588</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>3031.013520948588</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>3031.013520948588</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>3031.013520948588</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>3031.013520948588</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3031.013520948588</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3031.013520948588</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2630.370123117541</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2229.43345006563</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>739.4511123055061</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>605.4560410544518</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>488.5588832738442</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>368.0660672661722</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>259.1061874486768</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>152.1160747630155</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>81.36886179873159</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>810.7961168537472</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>1560.971963288523</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O18" t="n">
-        <v>2107.109466269472</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2107.109466269472</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2107.109466269472</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
-        <v>2107.109466269472</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1999.119456383781</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1839.777592570789</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1642.426781709008</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1428.715254702041</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1215.48208643837</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1039.156104577263</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>879.7541449410927</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>840.4620794315174</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>840.4620794315174</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>680.9674347544274</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>520.0566196227469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>355.4254937333382</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>188.1751026588816</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>176.9663163146456</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>60.62027041897176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>74.70281982418228</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>229.2551475464203</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>489.1522478264808</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>778.4163042669741</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.255086661224</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1318.815696987699</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1524.491137237311</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1590.019167039822</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1504.746448715222</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1318.354680595132</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1078.805941571834</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U19" t="n">
-        <v>1078.805941571834</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>1078.805941571834</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>1078.805941571834</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>840.4620794315174</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
-        <v>840.4620794315174</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1509.855690915283</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1095.51547543218</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
         <v>899.2322418529996</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4269.84331758475</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3920.005762921231</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1584.839892213121</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1789.888428857139</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.2436976906228</v>
+        <v>847.172744764422</v>
       </c>
       <c r="C22" t="n">
-        <v>93.2436976906228</v>
+        <v>847.172744764422</v>
       </c>
       <c r="D22" t="n">
-        <v>93.2436976906228</v>
+        <v>687.678100087332</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>687.678100087332</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>523.0469741979233</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>355.7965831234667</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>206.1891279289233</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5932,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U22" t="n">
-        <v>1100.295707834299</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V22" t="n">
-        <v>826.4099627738212</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W22" t="n">
-        <v>547.3402982826956</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="X22" t="n">
-        <v>308.996436142379</v>
+        <v>1071.908443375657</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.2436976906228</v>
+        <v>847.172744764422</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6014,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
-        <v>4408.238733368956</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V23" t="n">
-        <v>4058.401178705436</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W23" t="n">
-        <v>3674.640877840605</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X23" t="n">
-        <v>3273.997480009557</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y23" t="n">
-        <v>2873.060806957647</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>3458.672769375206</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N24" t="n">
-        <v>4332.330861486824</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O24" t="n">
-        <v>4662.18488453114</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
         <v>93.2436976906228</v>
@@ -6169,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>1593.281623979807</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>1406.889855859717</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.642594311473</v>
+        <v>1167.341116836419</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.642594311473</v>
+        <v>884.5429693825431</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.756849250995</v>
+        <v>610.6572243220651</v>
       </c>
       <c r="W25" t="n">
-        <v>1069.687184759869</v>
+        <v>331.5875598309394</v>
       </c>
       <c r="X25" t="n">
-        <v>1069.687184759869</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y25" t="n">
-        <v>1069.687184759869</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6266,10 +6268,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2950.224652005755</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2549.287978953845</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6303,19 +6305,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6046680222891</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C28" t="n">
-        <v>122.6046680222891</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D28" t="n">
-        <v>122.6046680222891</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E28" t="n">
-        <v>122.6046680222891</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1436.250826191383</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.702087168085</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U28" t="n">
-        <v>913.9039397142094</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V28" t="n">
-        <v>640.0181946537314</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W28" t="n">
-        <v>360.9485301626057</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X28" t="n">
-        <v>122.6046680222891</v>
+        <v>1299.026013846556</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.6046680222891</v>
+        <v>1074.290315235321</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E29" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F29" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G29" t="n">
-        <v>452.2785793327262</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6488,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="30">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6646,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T31" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U31" t="n">
-        <v>1100.295707834299</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V31" t="n">
-        <v>826.4099627738212</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W31" t="n">
-        <v>547.3402982826956</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X31" t="n">
-        <v>308.996436142379</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>360.9485301626057</v>
       </c>
     </row>
     <row r="32">
@@ -6777,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>3303.879360348573</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T34" t="n">
-        <v>1392.076815447654</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U34" t="n">
-        <v>1109.278667993779</v>
+        <v>4507.614037045773</v>
       </c>
       <c r="V34" t="n">
-        <v>835.3929229333004</v>
+        <v>4233.728291985295</v>
       </c>
       <c r="W34" t="n">
-        <v>556.3232584421747</v>
+        <v>3954.658627494169</v>
       </c>
       <c r="X34" t="n">
-        <v>317.9793963018581</v>
+        <v>3716.314765353853</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>3491.579066742617</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6925,10 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>873.3089913790386</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>464.5807072718708</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -7017,22 +7019,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.182536368609</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>1228.182536368609</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7069,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>93.2436976906228</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C37" t="n">
-        <v>93.2436976906228</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E37" t="n">
         <v>93.2436976906228</v>
@@ -7123,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1392.076815447654</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>1109.278667993779</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>835.3929229333004</v>
+        <v>1514.591461574399</v>
       </c>
       <c r="W37" t="n">
-        <v>556.3232584421747</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X37" t="n">
-        <v>317.9793963018581</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.2436976906228</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2139.066799289355</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4563.732881158784</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4341.526397105643</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4084.465905365153</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3734.628350701634</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3350.868049836802</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2950.224652005755</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2549.287978953845</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>93.2436976906228</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="C40" t="n">
-        <v>93.2436976906228</v>
+        <v>699.770875649097</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>699.770875649097</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7363,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1100.295707834299</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>826.4099627738212</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="W40" t="n">
-        <v>547.3402982826956</v>
+        <v>1109.208110227697</v>
       </c>
       <c r="X40" t="n">
-        <v>308.996436142379</v>
+        <v>870.8642480873805</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.2436976906228</v>
+        <v>870.8642480873805</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2151.931129920876</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C41" t="n">
-        <v>1741.806539234146</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.342609327206</v>
+        <v>1204.000295021459</v>
       </c>
       <c r="E41" t="n">
-        <v>923.0023938441032</v>
+        <v>789.6600795383561</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>368.6296674920436</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I41" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L41" t="n">
-        <v>1598.180070079655</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M41" t="n">
-        <v>2374.498661071409</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N41" t="n">
-        <v>3127.679677710027</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O41" t="n">
-        <v>3771.310534127132</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P41" t="n">
-        <v>4300.467232046283</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q41" t="n">
-        <v>4621.628238841575</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R41" t="n">
-        <v>4662.18488453114</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>4354.390727737164</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U41" t="n">
-        <v>4097.330235996674</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V41" t="n">
-        <v>3747.492681333154</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W41" t="n">
-        <v>3363.732380468323</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X41" t="n">
-        <v>2963.088982637275</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.152309585365</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>772.0745395771571</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>638.0794683261029</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>521.1823105454953</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>400.6894945378233</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
-        <v>291.7296147203278</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>184.7395020346666</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>113.9922890703826</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>547.3769757191078</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>2139.732893541123</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>2031.742883655432</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>1872.40101984244</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>1675.050208980659</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>1461.338681973692</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>1248.105513710021</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>1071.779531848914</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>912.3775722127438</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1115.108748246362</v>
+        <v>3648.687041053735</v>
       </c>
       <c r="C43" t="n">
-        <v>1011.484175553476</v>
+        <v>3477.593668615451</v>
       </c>
       <c r="D43" t="n">
-        <v>851.989530876386</v>
+        <v>3318.099023938361</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>3157.188208806681</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>3049.137076069607</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>3063.219625474818</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>3217.771953197056</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>3477.669053477116</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>3766.933109917609</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>4047.77189231186</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>4307.332502638334</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>4513.007942887946</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.642594311473</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.642594311473</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.642594311473</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U43" t="n">
-        <v>1339.844446857597</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="V43" t="n">
-        <v>1339.844446857597</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="W43" t="n">
-        <v>1339.844446857597</v>
+        <v>4299.466308199331</v>
       </c>
       <c r="X43" t="n">
-        <v>1339.844446857597</v>
+        <v>4061.122446059015</v>
       </c>
       <c r="Y43" t="n">
-        <v>1115.108748246362</v>
+        <v>3836.386747447779</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1213.245485483168</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="C44" t="n">
-        <v>803.1208947964384</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D44" t="n">
-        <v>469.3485545261396</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E44" t="n">
-        <v>469.3485545261396</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F44" t="n">
-        <v>469.3485545261396</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G44" t="n">
-        <v>60.62027041897176</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H44" t="n">
-        <v>60.62027041897176</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I44" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>60.62027041897176</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K44" t="n">
-        <v>60.62027041897176</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L44" t="n">
-        <v>60.62027041897176</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M44" t="n">
-        <v>746.332467692699</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N44" t="n">
-        <v>1496.508314127474</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O44" t="n">
-        <v>2140.139170544579</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P44" t="n">
-        <v>2669.295868463731</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q44" t="n">
-        <v>2990.456875259023</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R44" t="n">
-        <v>3031.013520948588</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>3031.013520948588</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T44" t="n">
-        <v>2808.807036895447</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U44" t="n">
-        <v>2808.807036895447</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V44" t="n">
-        <v>2808.807036895447</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W44" t="n">
-        <v>2425.046736030615</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X44" t="n">
-        <v>2024.403338199568</v>
+        <v>2829.746668331528</v>
       </c>
       <c r="Y44" t="n">
-        <v>1623.466665147658</v>
+        <v>2428.809995279618</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>739.4511123055061</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>605.4560410544518</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>488.5588832738442</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>368.0660672661722</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
-        <v>259.1061874486768</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>152.1160747630155</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>81.36886179873159</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L45" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M45" t="n">
-        <v>810.7961168537472</v>
+        <v>323.2919466575477</v>
       </c>
       <c r="N45" t="n">
-        <v>1560.971963288523</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="O45" t="n">
-        <v>2107.109466269472</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P45" t="n">
-        <v>2107.109466269472</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q45" t="n">
-        <v>2107.109466269472</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R45" t="n">
-        <v>2107.109466269472</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>1999.119456383781</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>1839.777592570789</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.426781709008</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>1428.715254702041</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.48208643837</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>1039.156104577263</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>879.7541449410927</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>796.0077941179582</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C46" t="n">
-        <v>796.0077941179582</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D46" t="n">
-        <v>796.0077941179582</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E46" t="n">
-        <v>658.4552884730543</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F46" t="n">
-        <v>493.8241625836456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G46" t="n">
-        <v>326.573771509189</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H46" t="n">
-        <v>176.9663163146456</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
-        <v>60.62027041897176</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>74.70281982418228</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
-        <v>229.2551475464203</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>489.1522478264808</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>778.4163042669741</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>1059.255086661224</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>1318.815696987699</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>1524.491137237311</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>1590.019167039822</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1504.746448715222</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S46" t="n">
-        <v>1318.354680595132</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1078.805941571834</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U46" t="n">
-        <v>796.0077941179582</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V46" t="n">
-        <v>796.0077941179582</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W46" t="n">
-        <v>796.0077941179582</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X46" t="n">
-        <v>796.0077941179582</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y46" t="n">
-        <v>796.0077941179582</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7984,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>851.0436046941925</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>850.6656709937663</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>205.0027957433158</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8061,25 +8063,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>613.4997452821208</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>851.0436046941925</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>815.4183833887495</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8295,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>655.9039391624884</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>810.9467736308969</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>533.885887800061</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8532,28 +8534,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>607.7685672259493</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>815.3176639755644</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>810.9467736308969</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>713.8858861212705</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>386.6482264809467</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,25 +8771,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>815.3176639755644</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>810.9467736308969</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>609.4055224150998</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>456.1398311711382</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K14" t="n">
-        <v>204.1053810173811</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>69.59591606606021</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>384.4175102257752</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9018,13 +9020,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
-        <v>395.741967076793</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>851.0436046941925</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
@@ -9182,10 +9184,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>815.3176639755644</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>810.9467736308969</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>609.4055224151002</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -9489,16 +9491,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>260.3131273776065</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9729,13 +9731,13 @@
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>389.8785003677836</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9951,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
@@ -9960,13 +9962,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>336.4139358902908</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10425,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10434,19 +10436,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>293.7680303325975</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10607,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,25 +10667,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>75.79096100447751</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10844,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>785.9288075618206</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>850.6656709937663</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11382,22 +11384,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>815.3176639755644</v>
+        <v>291.6261293987594</v>
       </c>
       <c r="N45" t="n">
-        <v>810.9467736308969</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>609.4055224151002</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22547,7 +22549,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>364.2459780521189</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22556,13 +22558,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22598,19 +22600,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>218.4543076878613</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>194.7158398879884</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,7 +22792,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>18.38688973148109</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22951,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>59.70539135393408</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -22996,13 +22998,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>164.1762662001699</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23033,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>112.4378958721162</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>269.1504133398155</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300456</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.0944779256029</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>41.22474878541232</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>46.18831920153724</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>49.16599412720581</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>55.35263051300473</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>297.0944779256029</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23780,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>137.0146821618043</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23978,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>3.366609500799569</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>54.06597461814522</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24224,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>137.0114616263634</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>182.401583492958</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24506,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>36.46078111520842</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>177.8444843222612</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.917454002165</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>37.84312462897446</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>163.844069095764</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25126,10 +25128,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>126.9450269688244</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>25.66401796922128</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25363,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>8.893130557884461</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>164.1762662001699</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>36.46078111520806</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>150.696468675016</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.893130557884348</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>130.352642708244</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25679,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>49.19646844041395</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>66.79411174794377</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>56.01419322081173</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>117.6169553830382</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>69.98467374027427</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190895</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>600836.9755317322</v>
+        <v>504330.2993957724</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>600836.975531732</v>
+        <v>504330.2993957723</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>600836.975531732</v>
+        <v>759250.9605779868</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>600836.9755317318</v>
+        <v>759250.9605779868</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>600836.9755317321</v>
+        <v>759250.9605779868</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>600836.9755317317</v>
+        <v>767813.7813981629</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>767813.7813981629</v>
+        <v>767813.7813981628</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>767813.7813981631</v>
+        <v>767813.7813981629</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>767813.7813981631</v>
+        <v>767813.7813981632</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>767813.7813981631</v>
+        <v>767813.7813981629</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>767813.7813981631</v>
+        <v>767813.7813981629</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>767813.7813981628</v>
+        <v>759250.9605779867</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>600836.9755317316</v>
+        <v>759250.9605779868</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203996.4135737145</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="C2" t="n">
-        <v>203996.4135737146</v>
+        <v>171233.1127674947</v>
       </c>
       <c r="D2" t="n">
-        <v>203996.4135737146</v>
+        <v>257776.7866193108</v>
       </c>
       <c r="E2" t="n">
-        <v>203996.4135737146</v>
+        <v>257776.7866193108</v>
       </c>
       <c r="F2" t="n">
-        <v>203996.4135737145</v>
+        <v>257776.7866193108</v>
       </c>
       <c r="G2" t="n">
-        <v>203996.4135737146</v>
+        <v>260683.8007815846</v>
       </c>
       <c r="H2" t="n">
         <v>260683.8007815845</v>
@@ -26335,7 +26337,7 @@
         <v>260683.8007815845</v>
       </c>
       <c r="J2" t="n">
-        <v>260683.8007815844</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="K2" t="n">
         <v>260683.8007815845</v>
@@ -26344,16 +26346,16 @@
         <v>260683.8007815845</v>
       </c>
       <c r="M2" t="n">
-        <v>260683.8007815844</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="N2" t="n">
         <v>260683.8007815845</v>
       </c>
       <c r="O2" t="n">
-        <v>260683.8007815845</v>
+        <v>257776.7866193108</v>
       </c>
       <c r="P2" t="n">
-        <v>203996.4135737146</v>
+        <v>257776.7866193109</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253940.5860452134</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
-        <v>110026.1786092112</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>198261.625418768</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12059.33634630215</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="C4" t="n">
-        <v>12059.33634630215</v>
+        <v>10090.76744434242</v>
       </c>
       <c r="D4" t="n">
-        <v>12059.33634630215</v>
+        <v>15290.7070357064</v>
       </c>
       <c r="E4" t="n">
-        <v>12059.33634630215</v>
+        <v>15290.7070357064</v>
       </c>
       <c r="F4" t="n">
-        <v>12059.33634630215</v>
+        <v>15290.7070357064</v>
       </c>
       <c r="G4" t="n">
-        <v>12059.33634630215</v>
+        <v>15465.37373706398</v>
       </c>
       <c r="H4" t="n">
         <v>15465.37373706398</v>
@@ -26454,10 +26456,10 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>15465.37373706398</v>
+        <v>15290.70703570641</v>
       </c>
       <c r="P4" t="n">
-        <v>12059.33634630215</v>
+        <v>15290.7070357064</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>79699.00551841853</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>79699.00551841853</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
-        <v>46071.40551841853</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487332</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>46071.40551841853</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141702.5143362196</v>
+        <v>-79182.22964845938</v>
       </c>
       <c r="C6" t="n">
-        <v>112238.0717089939</v>
+        <v>95773.28024465468</v>
       </c>
       <c r="D6" t="n">
-        <v>112238.0717089939</v>
+        <v>-54124.31763645872</v>
       </c>
       <c r="E6" t="n">
-        <v>145865.6717089939</v>
+        <v>172892.3327987094</v>
       </c>
       <c r="F6" t="n">
-        <v>145865.6717089938</v>
+        <v>172892.3327987094</v>
       </c>
       <c r="G6" t="n">
-        <v>145865.6717089939</v>
+        <v>168621.4887991839</v>
       </c>
       <c r="H6" t="n">
-        <v>64327.03819043598</v>
+        <v>174353.2167996472</v>
       </c>
       <c r="I6" t="n">
-        <v>174353.2167996471</v>
+        <v>174353.2167996472</v>
       </c>
       <c r="J6" t="n">
-        <v>-23908.4086191209</v>
+        <v>37758.41599375219</v>
       </c>
       <c r="K6" t="n">
         <v>174353.2167996472</v>
       </c>
       <c r="L6" t="n">
+        <v>16786.24592211726</v>
+      </c>
+      <c r="M6" t="n">
         <v>174353.2167996472</v>
       </c>
-      <c r="M6" t="n">
-        <v>174353.2167996471</v>
-      </c>
       <c r="N6" t="n">
-        <v>174353.2167996471</v>
+        <v>174353.2167996472</v>
       </c>
       <c r="O6" t="n">
-        <v>174353.2167996471</v>
+        <v>172892.3327987095</v>
       </c>
       <c r="P6" t="n">
-        <v>145865.6717089939</v>
+        <v>172892.3327987095</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
-        <v>757.753380237147</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>1165.546221132785</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>757.753380237147</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.7533802371468</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
-        <v>407.7928408956379</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>114.9689913441638</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>555.7482662821208</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>722.5060926321302</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>598.339655424071</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>757.753380237147</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>440.6961121742779</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,28 +35254,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>551.6540434151002</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>656.1344071212704</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>291.1628284181019</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>757.753380237147</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>551.6540434150997</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>401.8801961683344</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K14" t="n">
-        <v>114.9689913441639</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.2266772660602</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>328.3029864149262</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
-        <v>300.2565690139482</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>757.753380237147</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
         <v>650.1321781990958</v>
@@ -35902,10 +35904,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>757.753380237147</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>757.753380237147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>551.6540434151002</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,16 +36211,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>207.1197339838565</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36449,13 +36451,13 @@
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>278.8496521518734</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>18.22667726606008</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>692.6385831047751</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>757.753380237147</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>757.753380237147</v>
+        <v>234.0618456603419</v>
       </c>
       <c r="N45" t="n">
-        <v>757.753380237147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>551.6540434151002</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>830932.6299909714</v>
+        <v>828149.6408503948</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5312247.587582162</v>
+        <v>5312247.587582165</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3783355.816622883</v>
+        <v>3783355.816622884</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8328556.072514167</v>
+        <v>8328556.072514166</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>265.1350829890115</v>
       </c>
       <c r="C2" t="n">
-        <v>41.77736672774366</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,10 +676,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -882,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>392.4208820523424</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>82.68110680657054</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>103.2794232765806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>187.9513319736514</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>77.18876577706861</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>43.7322706362915</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>92.70351566842783</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>93.27142537109928</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>84.76227032663424</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>297.1731849896783</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.43741174507651</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059087</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>49.12308702887171</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -1858,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>29.06736062834964</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>279.808646299486</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>111.8159759359175</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>352.0529932496993</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2338,7 +2338,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>29.06736062834963</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="26">
@@ -2566,16 +2566,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>282.1353944293379</v>
+        <v>59.82422708687625</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.978225007842747</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2809,10 +2809,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
         <v>219.9844192126098</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.733818067948024</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>153.0251390105127</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>216.6467621941105</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3322,7 +3322,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>106.9706214097034</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>8.605238305347671</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3754,10 +3754,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>274.2883585578521</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>170.250515382732</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>93.21298558425178</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9706214097029</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>288.5020124848064</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -3991,13 +3991,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>274.2883585578521</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
   </sheetData>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492.6927300678241</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="C2" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="D2" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="E2" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N2" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.493980615271</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="X2" t="n">
-        <v>1303.850582784223</v>
+        <v>1115.566844932394</v>
       </c>
       <c r="Y2" t="n">
-        <v>902.9139097323135</v>
+        <v>1115.566844932394</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.571341894901</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M3" t="n">
-        <v>1531.257211227552</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="N3" t="n">
-        <v>1531.257211227552</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O3" t="n">
-        <v>2048.100145893877</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4512,25 +4512,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>41.76508562960205</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
         <v>41.76508562960205</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.908511128883</v>
+        <v>936.8818306695006</v>
       </c>
       <c r="D5" t="n">
-        <v>1267.908511128883</v>
+        <v>936.8818306695006</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>522.5416151863973</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4573,16 +4573,16 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
+        <v>41.76508562960205</v>
+      </c>
+      <c r="M5" t="n">
         <v>558.6080202959273</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1075.450954962253</v>
       </c>
-      <c r="N5" t="n">
-        <v>1592.293889628578</v>
-      </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
         <v>1767.09327468481</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>52.35970185319746</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>508.1659581184962</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.100145893876</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>637.5865676509799</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>466.4931952126964</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>306.9985505356064</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>146.0877354039259</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
         <v>41.76508562960205</v>
@@ -4755,22 +4755,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>1288.365834796576</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>1288.365834796576</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>1050.02197265626</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.2862740450242</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2547.518411739271</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C8" t="n">
-        <v>2137.393821052541</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D8" t="n">
-        <v>1732.929891145602</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E8" t="n">
-        <v>1318.589675662498</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F8" t="n">
-        <v>897.5592636161858</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G8" t="n">
-        <v>488.830979509018</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H8" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I8" t="n">
         <v>91.57071945380915</v>
@@ -4825,7 +4825,7 @@
         <v>4298.794253809469</v>
       </c>
       <c r="Q8" t="n">
-        <v>4578.535972690457</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R8" t="n">
         <v>4578.535972690457</v>
@@ -4834,22 +4834,22 @@
         <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>4221.048413431417</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="U8" t="n">
-        <v>4221.048413431417</v>
+        <v>4186.194405744068</v>
       </c>
       <c r="V8" t="n">
-        <v>4143.079963151549</v>
+        <v>3836.356851080548</v>
       </c>
       <c r="W8" t="n">
-        <v>3759.319662286718</v>
+        <v>3452.596550215717</v>
       </c>
       <c r="X8" t="n">
-        <v>3358.676264455671</v>
+        <v>3051.953152384669</v>
       </c>
       <c r="Y8" t="n">
-        <v>2957.739591403761</v>
+        <v>2651.016479332759</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K9" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L9" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="M9" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="N9" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="O9" t="n">
         <v>1196.950038769166</v>
@@ -4986,25 +4986,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1349.305129629969</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T10" t="n">
-        <v>1109.756390606671</v>
+        <v>1390.40383721084</v>
       </c>
       <c r="U10" t="n">
-        <v>826.9582431527954</v>
+        <v>1107.605689756965</v>
       </c>
       <c r="V10" t="n">
-        <v>553.0724980923173</v>
+        <v>833.7199446964867</v>
       </c>
       <c r="W10" t="n">
-        <v>274.0028336011917</v>
+        <v>554.650280205361</v>
       </c>
       <c r="X10" t="n">
-        <v>91.57071945380915</v>
+        <v>316.3064180650445</v>
       </c>
       <c r="Y10" t="n">
         <v>91.57071945380915</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2461.166649056344</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C11" t="n">
-        <v>2051.042058369614</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.578128462675</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.237912979571</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F11" t="n">
-        <v>811.207500933259</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G11" t="n">
-        <v>402.4792168260911</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H11" t="n">
-        <v>91.57071945380915</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I11" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K11" t="n">
         <v>801.9397584267342</v>
@@ -5068,25 +5068,25 @@
         <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>4484.896057873863</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T11" t="n">
-        <v>4262.689573820722</v>
+        <v>4349.041336503649</v>
       </c>
       <c r="U11" t="n">
-        <v>4005.629082080232</v>
+        <v>4091.980844763159</v>
       </c>
       <c r="V11" t="n">
-        <v>3655.791527416713</v>
+        <v>3742.14329009964</v>
       </c>
       <c r="W11" t="n">
-        <v>3272.031226551881</v>
+        <v>3358.382989234808</v>
       </c>
       <c r="X11" t="n">
-        <v>2871.387828720834</v>
+        <v>2957.739591403761</v>
       </c>
       <c r="Y11" t="n">
-        <v>2871.387828720834</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K12" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L12" t="n">
-        <v>547.3769757191078</v>
+        <v>1401.278005201029</v>
       </c>
       <c r="M12" t="n">
-        <v>1390.354056413674</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="N12" t="n">
-        <v>1390.354056413674</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O12" t="n">
-        <v>1390.354056413674</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P12" t="n">
-        <v>1788.215450620326</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q12" t="n">
         <v>2138.059915304309</v>
@@ -5223,25 +5223,25 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1109.756390606671</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U13" t="n">
-        <v>826.9582431527954</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V13" t="n">
-        <v>553.0724980923173</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W13" t="n">
-        <v>274.0028336011917</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X13" t="n">
-        <v>91.57071945380915</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y13" t="n">
         <v>91.57071945380915</v>
@@ -5278,40 +5278,40 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K14" t="n">
-        <v>801.9397584267342</v>
+        <v>842.4964041162991</v>
       </c>
       <c r="L14" t="n">
-        <v>1514.531158238972</v>
+        <v>1555.087803928537</v>
       </c>
       <c r="M14" t="n">
-        <v>2290.849749230726</v>
+        <v>2331.406394920291</v>
       </c>
       <c r="N14" t="n">
-        <v>3044.030765869344</v>
+        <v>3084.587411558909</v>
       </c>
       <c r="O14" t="n">
-        <v>3687.661622286449</v>
+        <v>3728.218267976014</v>
       </c>
       <c r="P14" t="n">
-        <v>4216.818320205601</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q14" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R14" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>4443.254897484558</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="T14" t="n">
-        <v>4443.254897484558</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="U14" t="n">
-        <v>4443.254897484558</v>
+        <v>4492.917517815069</v>
       </c>
       <c r="V14" t="n">
         <v>4143.079963151549</v>
@@ -5363,16 +5363,16 @@
         <v>547.3769757191078</v>
       </c>
       <c r="L15" t="n">
-        <v>872.3969322698847</v>
+        <v>1208.465147638396</v>
       </c>
       <c r="M15" t="n">
-        <v>872.3969322698847</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="N15" t="n">
-        <v>872.3969322698847</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O15" t="n">
-        <v>1576.354022815779</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P15" t="n">
         <v>2138.059915304309</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.57071945380915</v>
+        <v>134.4367919235834</v>
       </c>
       <c r="C16" t="n">
         <v>91.57071945380915</v>
@@ -5460,28 +5460,28 @@
         <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1535.696897750059</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1349.305129629969</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1109.756390606671</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U16" t="n">
-        <v>826.9582431527954</v>
+        <v>1338.171468620783</v>
       </c>
       <c r="V16" t="n">
-        <v>553.0724980923173</v>
+        <v>1064.285723560305</v>
       </c>
       <c r="W16" t="n">
-        <v>274.0028336011917</v>
+        <v>785.2160590691797</v>
       </c>
       <c r="X16" t="n">
-        <v>91.57071945380915</v>
+        <v>546.8721969288631</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.57071945380915</v>
+        <v>322.1364983176278</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5515,7 +5515,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674168</v>
@@ -5597,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>93.2436976906228</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>966.9017898022406</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1392.076815447654</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U19" t="n">
-        <v>1109.278667993779</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V19" t="n">
-        <v>835.3929229333004</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W19" t="n">
-        <v>556.3232584421747</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X19" t="n">
-        <v>317.9793963018581</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.2436976906228</v>
+        <v>122.6046680222891</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.172744764422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>847.172744764422</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>687.678100087332</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>687.678100087332</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>523.0469741979233</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>355.7965831234667</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>206.1891279289233</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>1350.978107866783</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>1350.978107866783</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V22" t="n">
-        <v>1350.978107866783</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W22" t="n">
-        <v>1071.908443375657</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.908443375657</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y22" t="n">
-        <v>847.172744764422</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6019,22 +6019,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4439.978400477999</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4439.978400477999</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>4090.140845814479</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3706.380544949648</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>3305.7371471186</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2904.80047406669</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>1809.878870496807</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6171,25 +6171,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1593.281623979807</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1406.889855859717</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1167.341116836419</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>884.5429693825431</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>610.6572243220651</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>331.5875598309394</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X25" t="n">
-        <v>93.2436976906228</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y25" t="n">
         <v>93.2436976906228</v>
@@ -6214,13 +6214,13 @@
         <v>873.3089913790386</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1537.369875986873</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.369875986873</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1537.369875986873</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1299.026013846556</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>1074.290315235321</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D29" t="n">
-        <v>1337.342609327206</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E29" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>360.9485301626057</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>360.9485301626057</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>360.9485301626057</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>360.9485301626057</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>360.9485301626057</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1196.702087168085</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>913.9039397142094</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>640.0181946537314</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>360.9485301626057</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>360.9485301626057</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>360.9485301626057</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
         <v>2052.715036606428</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6782,16 +6782,16 @@
         <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>286.056555253256</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>286.056555253256</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>524.2254458227151</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
         <v>1228.182536368609</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3303.879360348573</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>4507.614037045773</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>4233.728291985295</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>3954.658627494169</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>3716.314765353853</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>3491.579066742617</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F35" t="n">
-        <v>588.3237444807176</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G35" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6970,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>584.7425299376769</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>413.6491574993933</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>254.1545128223033</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
         <v>93.2436976906228</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>1514.591461574399</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>1235.521797083273</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>997.1779349429565</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.4422363317212</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7253,13 +7253,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
         <v>1228.182536368609</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.8642480873805</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>699.770875649097</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>699.770875649097</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V40" t="n">
-        <v>1109.208110227697</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W40" t="n">
-        <v>1109.208110227697</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X40" t="n">
-        <v>870.8642480873805</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y40" t="n">
-        <v>870.8642480873805</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2018.588815615129</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C41" t="n">
-        <v>1608.464224928399</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D41" t="n">
-        <v>1204.000295021459</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E41" t="n">
-        <v>789.6600795383561</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F41" t="n">
-        <v>368.6296674920436</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G41" t="n">
-        <v>91.57071945380915</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H41" t="n">
         <v>91.57071945380915</v>
@@ -7411,52 +7411,52 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>263.7802573176947</v>
+        <v>304.3369030072596</v>
       </c>
       <c r="K41" t="n">
-        <v>801.9397584267342</v>
+        <v>842.4964041162991</v>
       </c>
       <c r="L41" t="n">
-        <v>1514.531158238972</v>
+        <v>1555.087803928537</v>
       </c>
       <c r="M41" t="n">
-        <v>2290.849749230726</v>
+        <v>2331.406394920291</v>
       </c>
       <c r="N41" t="n">
-        <v>3044.030765869344</v>
+        <v>3084.587411558909</v>
       </c>
       <c r="O41" t="n">
-        <v>3687.661622286449</v>
+        <v>3728.218267976014</v>
       </c>
       <c r="P41" t="n">
-        <v>4216.818320205601</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q41" t="n">
-        <v>4537.979327000892</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R41" t="n">
         <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>4443.254897484558</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T41" t="n">
-        <v>4221.048413431417</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U41" t="n">
-        <v>3963.987921690927</v>
+        <v>4406.565755132142</v>
       </c>
       <c r="V41" t="n">
-        <v>3614.150367027407</v>
+        <v>4056.728200468623</v>
       </c>
       <c r="W41" t="n">
-        <v>3230.390066162576</v>
+        <v>3672.967899603791</v>
       </c>
       <c r="X41" t="n">
-        <v>2829.746668331528</v>
+        <v>3272.324501772744</v>
       </c>
       <c r="Y41" t="n">
-        <v>2428.809995279618</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="42">
@@ -7490,13 +7490,13 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K42" t="n">
-        <v>547.3769757191078</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L42" t="n">
-        <v>1208.465147638396</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="M42" t="n">
         <v>1226.509558131796</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3648.687041053735</v>
+        <v>594.545608855958</v>
       </c>
       <c r="C43" t="n">
-        <v>3477.593668615451</v>
+        <v>423.4522364176745</v>
       </c>
       <c r="D43" t="n">
-        <v>3318.099023938361</v>
+        <v>423.4522364176745</v>
       </c>
       <c r="E43" t="n">
-        <v>3157.188208806681</v>
+        <v>423.4522364176745</v>
       </c>
       <c r="F43" t="n">
-        <v>3049.137076069607</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="G43" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>3049.137076069607</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>3063.219625474818</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>3217.771953197056</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>3477.669053477116</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>3766.933109917609</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>4047.77189231186</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>4307.332502638334</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>4513.007942887946</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>4578.535972690457</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>4578.535972690457</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S43" t="n">
-        <v>4578.535972690457</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="T43" t="n">
-        <v>4578.535972690457</v>
+        <v>1434.577847954569</v>
       </c>
       <c r="U43" t="n">
-        <v>4578.535972690457</v>
+        <v>1151.779700500693</v>
       </c>
       <c r="V43" t="n">
-        <v>4578.535972690457</v>
+        <v>1151.779700500693</v>
       </c>
       <c r="W43" t="n">
-        <v>4299.466308199331</v>
+        <v>1151.779700500693</v>
       </c>
       <c r="X43" t="n">
-        <v>4061.122446059015</v>
+        <v>913.4358383603769</v>
       </c>
       <c r="Y43" t="n">
-        <v>3836.386747447779</v>
+        <v>688.7001397491416</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2137.393821052541</v>
+        <v>2018.588815615129</v>
       </c>
       <c r="C44" t="n">
-        <v>2137.393821052541</v>
+        <v>1608.464224928399</v>
       </c>
       <c r="D44" t="n">
-        <v>1732.929891145602</v>
+        <v>1204.000295021459</v>
       </c>
       <c r="E44" t="n">
-        <v>1318.589675662498</v>
+        <v>789.6600795383561</v>
       </c>
       <c r="F44" t="n">
-        <v>897.5592636161858</v>
+        <v>368.6296674920436</v>
       </c>
       <c r="G44" t="n">
-        <v>488.830979509018</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H44" t="n">
-        <v>177.922482136736</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I44" t="n">
         <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>263.7802573176947</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K44" t="n">
         <v>801.9397584267342</v>
@@ -7727,28 +7727,28 @@
         <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>91.57071945380915</v>
+        <v>284.3835770164424</v>
       </c>
       <c r="K45" t="n">
-        <v>91.57071945380915</v>
+        <v>740.1898332817411</v>
       </c>
       <c r="L45" t="n">
-        <v>91.57071945380915</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="M45" t="n">
-        <v>323.2919466575477</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="N45" t="n">
-        <v>1196.950038769166</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="O45" t="n">
-        <v>1196.950038769166</v>
+        <v>1226.509558131796</v>
       </c>
       <c r="P45" t="n">
-        <v>1758.655931257696</v>
+        <v>1788.215450620326</v>
       </c>
       <c r="Q45" t="n">
-        <v>2108.500395941679</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R45" t="n">
         <v>2138.059915304309</v>
@@ -7836,19 +7836,19 @@
         <v>1620.969616074659</v>
       </c>
       <c r="T46" t="n">
-        <v>1390.40383721084</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U46" t="n">
-        <v>1107.605689756965</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V46" t="n">
-        <v>833.7199446964867</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W46" t="n">
-        <v>554.650280205361</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X46" t="n">
-        <v>316.3064180650445</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y46" t="n">
         <v>91.57071945380915</v>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832877</v>
       </c>
       <c r="M2" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599696</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
@@ -8072,16 +8072,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>94.81936791818303</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8221,7 +8221,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
@@ -8233,7 +8233,7 @@
         <v>269.754811036119</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>62.07087134908629</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>94.81936791818303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>372.6011972082306</v>
+        <v>331.6348884308923</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8546,7 +8546,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>713.8858861212705</v>
+        <v>519.1254239367923</v>
       </c>
       <c r="P9" t="n">
         <v>621.6393243851574</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>632.7318453389136</v>
+        <v>549.9278720016724</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8768,28 +8768,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>90.72066712971576</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>456.1398311711382</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>590.8941807790108</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,10 +9011,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>384.4175102257752</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>285.4811293141939</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9023,7 +9023,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
@@ -9245,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>114.0659762175034</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>291.8133246603422</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>389.8785003677836</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10430,19 +10430,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>293.7680303325975</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10901,16 +10901,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>247.2726194786469</v>
+        <v>288.2389282559852</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139343</v>
       </c>
       <c r="M42" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11296,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>247.2726194786469</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>549.9278720016724</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11375,19 +11375,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139343</v>
       </c>
       <c r="M45" t="n">
-        <v>291.6261293987594</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
         <v>57.751479</v>
@@ -11399,7 +11399,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>140.9838848788331</v>
       </c>
       <c r="C2" t="n">
-        <v>364.2459780521189</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>55.35263051300493</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22792,19 +22792,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>17.77593127592979</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>334.1390011192788</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -22846,7 +22846,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>59.70539135393408</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -22995,22 +22995,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>218.1676358941932</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,13 +23074,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>269.1504133398155</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>193.4209809967734</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>41.22474878541232</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>126.7129938415105</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="14">
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.16599412720591</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
@@ -23554,7 +23554,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>49.16599412720581</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>126.9450269688242</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300473</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>356.9958808389729</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>136.5105265353624</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23940,10 +23940,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>3.366609500799569</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>54.06597461814522</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>55.35263051300471</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="26">
@@ -24454,16 +24454,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>134.6847134965114</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>177.8444843222612</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>163.844069095764</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25128,10 +25128,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>126.9450269688244</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25365,13 +25365,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>164.1762662001699</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>150.696468675016</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>130.352642708244</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>84.23937144035295</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>92.60972374585216</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>56.01419322081173</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.1113806425979</v>
@@ -25836,19 +25836,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>117.6169553830382</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>130.352642708244</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>504330.2993957724</v>
+        <v>504330.2993957722</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>504330.2993957723</v>
+        <v>504330.2993957722</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>759250.9605779868</v>
+        <v>759250.9605779867</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759250.9605779868</v>
+        <v>759250.9605779869</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>767813.7813981629</v>
+        <v>767813.7813981628</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>767813.7813981628</v>
+        <v>767813.7813981631</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>767813.7813981628</v>
+        <v>767813.7813981629</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>767813.7813981629</v>
+        <v>767813.7813981631</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>767813.7813981632</v>
+        <v>767813.7813981629</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>767813.7813981629</v>
+        <v>767813.7813981631</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>767813.7813981629</v>
+        <v>767813.7813981631</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759250.9605779867</v>
+        <v>759250.9605779868</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>171233.1127674947</v>
       </c>
       <c r="D2" t="n">
-        <v>257776.7866193108</v>
+        <v>257776.7866193109</v>
       </c>
       <c r="E2" t="n">
         <v>257776.7866193108</v>
@@ -26328,10 +26328,10 @@
         <v>257776.7866193108</v>
       </c>
       <c r="G2" t="n">
-        <v>260683.8007815846</v>
+        <v>260683.8007815845</v>
       </c>
       <c r="H2" t="n">
-        <v>260683.8007815845</v>
+        <v>260683.8007815844</v>
       </c>
       <c r="I2" t="n">
         <v>260683.8007815845</v>
@@ -26346,16 +26346,16 @@
         <v>260683.8007815845</v>
       </c>
       <c r="M2" t="n">
-        <v>260683.8007815845</v>
+        <v>260683.8007815844</v>
       </c>
       <c r="N2" t="n">
-        <v>260683.8007815845</v>
+        <v>260683.8007815844</v>
       </c>
       <c r="O2" t="n">
         <v>257776.7866193108</v>
       </c>
       <c r="P2" t="n">
-        <v>257776.7866193109</v>
+        <v>257776.7866193108</v>
       </c>
     </row>
     <row r="3">
@@ -26456,7 +26456,7 @@
         <v>15465.37373706398</v>
       </c>
       <c r="O4" t="n">
-        <v>15290.70703570641</v>
+        <v>15290.7070357064</v>
       </c>
       <c r="P4" t="n">
         <v>15290.7070357064</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79182.22964845938</v>
+        <v>-79859.75850785343</v>
       </c>
       <c r="C6" t="n">
-        <v>95773.28024465468</v>
+        <v>95095.75138526066</v>
       </c>
       <c r="D6" t="n">
-        <v>-54124.31763645872</v>
+        <v>-54321.04830778703</v>
       </c>
       <c r="E6" t="n">
-        <v>172892.3327987094</v>
+        <v>172695.602127381</v>
       </c>
       <c r="F6" t="n">
-        <v>172892.3327987094</v>
+        <v>172695.602127381</v>
       </c>
       <c r="G6" t="n">
-        <v>168621.4887991839</v>
+        <v>168440.9082065347</v>
       </c>
       <c r="H6" t="n">
-        <v>174353.2167996472</v>
+        <v>174172.636206998</v>
       </c>
       <c r="I6" t="n">
-        <v>174353.2167996472</v>
+        <v>174172.6362069981</v>
       </c>
       <c r="J6" t="n">
-        <v>37758.41599375219</v>
+        <v>37577.83540110308</v>
       </c>
       <c r="K6" t="n">
-        <v>174353.2167996472</v>
+        <v>174172.6362069981</v>
       </c>
       <c r="L6" t="n">
-        <v>16786.24592211726</v>
+        <v>16605.66532946809</v>
       </c>
       <c r="M6" t="n">
-        <v>174353.2167996472</v>
+        <v>174172.6362069981</v>
       </c>
       <c r="N6" t="n">
-        <v>174353.2167996472</v>
+        <v>174172.6362069981</v>
       </c>
       <c r="O6" t="n">
-        <v>172892.3327987095</v>
+        <v>172695.602127381</v>
       </c>
       <c r="P6" t="n">
-        <v>172892.3327987095</v>
+        <v>172695.602127381</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>40.55973291537929</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34941,7 +34941,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
@@ -34953,7 +34953,7 @@
         <v>176.5650354103359</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.70163254908628</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>40.55973291537929</v>
-      </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>282.5673928090785</v>
+        <v>241.6010840317402</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35266,7 +35266,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>656.1344071212704</v>
+        <v>461.3739449367923</v>
       </c>
       <c r="P9" t="n">
         <v>567.3796893823536</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>543.5954556656965</v>
+        <v>460.7914823284553</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>33.15638339129833</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>401.8801961683344</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>501.7577911057936</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>328.3029864149262</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>56.50169247908597</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>234.0618456603422</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36141,10 +36141,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>333.1858818629449</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>240.5746369388475</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>173.9490281453389</v>
+        <v>214.9153369226772</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="M42" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>173.9490281453389</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>460.7914823284553</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030853</v>
       </c>
       <c r="M45" t="n">
-        <v>234.0618456603419</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
